--- a/base-llm/llama-3-70b/eCommerce/ontology_URIs.xlsx
+++ b/base-llm/llama-3-70b/eCommerce/ontology_URIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanm\OntoGenixLLMExperiments\base-llm\llama-3-70b\eCommerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED08B018-5077-4F9C-BC13-A6C8A5CE8AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25F0F8-A078-49DA-B0A3-32831E9A16B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URIs" sheetId="2" r:id="rId1"/>
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,14 +139,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,7 +168,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
